--- a/Git命令整理.xlsx
+++ b/Git命令整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\My-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A8F24-2836-482F-B482-D47883B3EA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13014522-4974-4D47-84B9-E60E1BFD9051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>git</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>把本地某个分支的修改推送到远程仓库某个分支，如果远程这个分支不存在就创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-r]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有远程分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,14 +405,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -938,10 +946,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,195 +960,209 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:E40"/>
+    <mergeCell ref="A31:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" display="https://www.cnblogs.com/qianqiannian/p/6008140.html" xr:uid="{749D1C2C-6E3E-475E-ABC2-C9DC001274ED}"/>
+    <hyperlink ref="E22" r:id="rId1" display="https://www.cnblogs.com/qianqiannian/p/6008140.html" xr:uid="{749D1C2C-6E3E-475E-ABC2-C9DC001274ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
